--- a/Work/Data/db.xlsx
+++ b/Work/Data/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veetalya\Desktop\python-project-1\Work\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069D40B1-7C54-4251-8940-30C47666152F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95113C3C-EDA3-42FC-B44D-8CD847723CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5592" yWindow="2832" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -122,6 +122,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -407,7 +410,7 @@
   <dimension ref="B1:M1806"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B1048576"/>
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5874,13 +5877,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.21875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -25747,5 +25750,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Work/Data/db.xlsx
+++ b/Work/Data/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veetalya\Desktop\python-project-1\Work\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95113C3C-EDA3-42FC-B44D-8CD847723CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133D717D-BA8A-455F-80C6-2B0CF86B1A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5592" yWindow="2832" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <dimension ref="B1:M1806"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5872,7 +5872,7 @@
   <dimension ref="A1:C1806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
